--- a/Images/CSSP Tools-Comments and Suggestions Jan 2019.xlsx
+++ b/Images/CSSP Tools-Comments and Suggestions Jan 2019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="704">
   <si>
     <t>Item</t>
   </si>
@@ -1086,18 +1086,6 @@
   </si>
   <si>
     <t>Content Subsector</t>
-  </si>
-  <si>
-    <t>|||SUBSECTOR_MUNICIPALITIES|||</t>
-  </si>
-  <si>
-    <t>Will create some documentation for each municipality within the subsector using the document type unique code "SubsectorMunicipalityDocx" under subsector</t>
-  </si>
-  <si>
-    <t>Will create a list of contacts and their roles with the management of the municipality infrastructure</t>
-  </si>
-  <si>
-    <t>Will create a list of infrastructure showing the detail of each (i.e. which one is pumping to the other, description, flows, etc... )</t>
   </si>
   <si>
     <r>
@@ -1617,12 +1605,6 @@
     <t>|||SUBSECTOR_CSSP_LOGO|||</t>
   </si>
   <si>
-    <t>|||SUBSECTOR_MUNICIPALITY_CONTACTS|||</t>
-  </si>
-  <si>
-    <t>|||SUBSECTOR_MUNICIPALITY_INFRASTRUCTURE_DETAIL|||</t>
-  </si>
-  <si>
     <t>|||SUBSECTOR_LOCATION_OF_SURVEY_AREA_MAP|||</t>
   </si>
   <si>
@@ -2474,6 +2456,18 @@
   </si>
   <si>
     <t>|||STATISTICS_PERIOD|||</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MUNICIPALITIES_COMPACT|||</t>
+  </si>
+  <si>
+    <t>|||SUBSECTOR_MUNICIPALITIES_FULL|||</t>
+  </si>
+  <si>
+    <t>Will create some documentation showing each municipality and infrastructure hierarchy (only basic info)</t>
+  </si>
+  <si>
+    <t>Will create some documentation showing each municipality and infrastructure hierarchy (full info) which include Contacts, each infrastructure detail info, outfall info, comments</t>
   </si>
 </sst>
 </file>
@@ -3219,7 +3213,7 @@
         <v>145</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>4</v>
@@ -3231,10 +3225,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G1" s="70" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>29</v>
@@ -3263,7 +3257,7 @@
         <v>133</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -3313,7 +3307,7 @@
         <v>133</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
@@ -3365,7 +3359,7 @@
         <v>133</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -3391,7 +3385,7 @@
         <v>133</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.2">
@@ -3405,7 +3399,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>60</v>
@@ -3441,7 +3435,7 @@
         <v>146</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -3467,7 +3461,7 @@
         <v>133</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -3493,7 +3487,7 @@
         <v>133</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.2">
@@ -3519,7 +3513,7 @@
         <v>146</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -3545,7 +3539,7 @@
         <v>146</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.2">
@@ -3571,7 +3565,7 @@
         <v>133</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -3597,7 +3591,7 @@
         <v>133</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.2">
@@ -3617,13 +3611,13 @@
         <v>5</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>146</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -3646,7 +3640,7 @@
         <v>133</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H17" s="38"/>
     </row>
@@ -3697,7 +3691,7 @@
         <v>133</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -3723,12 +3717,12 @@
         <v>133</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>35</v>
@@ -3755,13 +3749,13 @@
     <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A22" s="29"/>
       <c r="B22" s="29" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>97</v>
@@ -3771,19 +3765,19 @@
         <v>146</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="29"/>
       <c r="B23" s="29" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>97</v>
@@ -3793,41 +3787,41 @@
         <v>133</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="68"/>
       <c r="B24" s="40" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="28" t="s">
         <v>133</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="29" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>97</v>
@@ -3837,41 +3831,41 @@
         <v>146</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="29" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>97</v>
@@ -3881,19 +3875,19 @@
         <v>133</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="29" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>97</v>
@@ -3903,7 +3897,7 @@
         <v>133</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -3911,16 +3905,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>146</v>
@@ -3935,16 +3929,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F30" s="38" t="s">
         <v>146</v>
@@ -3957,25 +3951,25 @@
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="37" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>97</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>155</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -3983,19 +3977,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>142</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>146</v>
@@ -4007,13 +4001,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D33" s="38" t="s">
         <v>424</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>428</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>142</v>
@@ -4025,7 +4019,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -4033,13 +4027,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>142</v>
@@ -4048,10 +4042,10 @@
         <v>133</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -4059,13 +4053,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E35" s="43" t="s">
         <v>142</v>
@@ -4189,10 +4183,10 @@
         <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -4215,10 +4209,10 @@
         <v>146</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4241,10 +4235,10 @@
         <v>146</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4267,7 +4261,7 @@
         <v>146</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -4291,10 +4285,10 @@
         <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -4320,7 +4314,7 @@
         <v>133</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.2">
@@ -4343,10 +4337,10 @@
         <v>146</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4370,7 +4364,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4413,10 +4407,10 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -4437,10 +4431,10 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -4484,7 +4478,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -4508,7 +4502,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.2">
@@ -4522,7 +4516,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>53</v>
@@ -4532,7 +4526,7 @@
         <v>133</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -4553,7 +4547,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>172</v>
@@ -4570,7 +4564,7 @@
         <v>244</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>106</v>
@@ -4582,7 +4576,7 @@
         <v>146</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -4594,7 +4588,7 @@
         <v>245</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>106</v>
@@ -4604,41 +4598,41 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="29" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>142</v>
@@ -4650,22 +4644,22 @@
         <v>146</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="29" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>133</v>
@@ -4678,11 +4672,11 @@
         <v>5</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>142</v>
@@ -4694,16 +4688,16 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="29" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>146</v>
@@ -4714,14 +4708,14 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="29" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F25" s="28" t="s">
         <v>146</v>
@@ -4734,16 +4728,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>146</v>
@@ -4758,16 +4752,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>146</v>
@@ -4780,16 +4774,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>146</v>
@@ -4798,21 +4792,21 @@
         <v>146</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G29" t="s">
         <v>146</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4910,7 +4904,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.2">
@@ -4994,7 +4988,7 @@
         <v>178</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.2">
@@ -5117,9 +5111,9 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5140,7 +5134,7 @@
         <v>145</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C1" s="63" t="s">
         <v>0</v>
@@ -5149,16 +5143,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
@@ -5184,7 +5178,7 @@
         <v>249</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
@@ -5198,16 +5192,16 @@
         <v>139</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>218</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G3" s="56" t="s">
         <v>251</v>
@@ -5228,7 +5222,7 @@
         <v>231</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E4" s="56" t="s">
         <v>218</v>
@@ -5240,7 +5234,7 @@
         <v>253</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
@@ -5251,25 +5245,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="I5" s="75"/>
       <c r="J5" s="75"/>
@@ -5280,20 +5274,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="76" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H6" s="80"/>
       <c r="I6" s="75"/>
@@ -5305,20 +5299,20 @@
         <v>1</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="77" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="61"/>
@@ -5330,20 +5324,20 @@
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="60" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H8" s="59"/>
       <c r="I8" s="61"/>
@@ -5355,23 +5349,23 @@
         <v>1</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="77" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
@@ -5382,22 +5376,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="75"/>
@@ -5409,23 +5403,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="E11" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>548</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="59" t="s">
+        <v>146</v>
+      </c>
       <c r="G11" s="60" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H11" s="78" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
@@ -5436,23 +5432,23 @@
         <v>2</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="57" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H12" s="71" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
@@ -5463,23 +5459,23 @@
         <v>2</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="57" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
@@ -5490,23 +5486,23 @@
         <v>1</v>
       </c>
       <c r="B14" s="58" t="s">
+        <v>484</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>544</v>
+      </c>
+      <c r="E14" s="61" t="s">
         <v>490</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>559</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>550</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>496</v>
       </c>
       <c r="F14" s="61"/>
       <c r="G14" s="57" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="H14" s="71" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="I14" s="72"/>
       <c r="J14" s="72"/>
@@ -5517,21 +5513,21 @@
         <v>1</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
       <c r="H15" s="72" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
@@ -5542,23 +5538,23 @@
         <v>1</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="71" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="H16" s="71" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
@@ -5569,20 +5565,20 @@
         <v>2</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="71" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
@@ -5594,20 +5590,20 @@
         <v>2</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F18" s="61"/>
       <c r="H18" s="71" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
@@ -5618,13 +5614,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E19" s="61" t="s">
         <v>183</v>
@@ -5632,7 +5628,7 @@
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
       <c r="H19" s="72" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
@@ -5643,21 +5639,21 @@
         <v>1</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F20" s="61"/>
       <c r="G20" s="61"/>
       <c r="H20" s="72" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
@@ -5668,13 +5664,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E21" s="61" t="s">
         <v>218</v>
@@ -5682,7 +5678,7 @@
       <c r="F21" s="61"/>
       <c r="G21" s="61"/>
       <c r="H21" s="72" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
@@ -5693,23 +5689,23 @@
         <v>1</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E22" s="61" t="s">
         <v>218</v>
       </c>
       <c r="F22" s="61"/>
       <c r="G22" s="57" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="H22" s="72" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
@@ -5720,23 +5716,23 @@
         <v>1</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F23" s="61"/>
       <c r="G23" s="61" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="H23" s="72" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
@@ -5747,13 +5743,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E24" s="61" t="s">
         <v>183</v>
@@ -5770,23 +5766,23 @@
         <v>1</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F25" s="61"/>
       <c r="G25" s="57" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="I25" s="79"/>
       <c r="J25" s="79"/>
@@ -5797,21 +5793,21 @@
         <v>1</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
       <c r="H26" s="72" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
@@ -5822,23 +5818,23 @@
         <v>1</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E27" s="61" t="s">
         <v>142</v>
       </c>
       <c r="F27" s="61"/>
       <c r="G27" s="57" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
@@ -5849,20 +5845,20 @@
         <v>2</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F28" s="61"/>
       <c r="G28" s="57" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="H28" s="72"/>
       <c r="I28" s="72"/>
@@ -5874,23 +5870,23 @@
         <v>1</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F29" s="61"/>
       <c r="G29" s="57" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="H29" s="72" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="I29" s="72"/>
       <c r="J29" s="72"/>
@@ -5901,23 +5897,23 @@
         <v>1</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F30" s="61"/>
       <c r="G30" s="61" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H30" s="72" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
@@ -5928,23 +5924,23 @@
         <v>1</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F31" s="61"/>
       <c r="G31" s="57" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="H31" s="72" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="I31" s="72"/>
       <c r="J31" s="72"/>
@@ -5955,21 +5951,21 @@
         <v>1</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D32" s="57" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="61"/>
       <c r="H32" s="72" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="I32" s="72"/>
       <c r="J32" s="72"/>
@@ -5980,23 +5976,23 @@
         <v>1</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E33" s="72" t="s">
         <v>142</v>
       </c>
       <c r="F33" s="61"/>
       <c r="G33" s="71" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H33" s="72" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="I33" s="72"/>
       <c r="J33" s="72"/>
@@ -6020,10 +6016,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6119,7 +6115,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>133</v>
@@ -6213,7 +6209,7 @@
         <v>133</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6224,7 +6220,7 @@
         <v>133</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6235,7 +6231,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6251,30 +6247,36 @@
     </row>
     <row r="23" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>133</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>308</v>
+        <v>700</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>275</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="26"/>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
@@ -6287,362 +6289,335 @@
       <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="26"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>460</v>
-      </c>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>275</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>311</v>
-      </c>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="26"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="46"/>
       <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="26"/>
+      <c r="A36" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>277</v>
-      </c>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>279</v>
-      </c>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="46"/>
       <c r="C41" s="26"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="26"/>
+    <row r="42" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="26"/>
-    </row>
-    <row r="45" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="48" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="48" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>439</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
-        <v>286</v>
+        <v>698</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
-        <v>288</v>
+        <v>650</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
-        <v>290</v>
+        <v>683</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>454</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="48" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="48" t="s">
-        <v>690</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="48" t="s">
-        <v>698</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="48" t="s">
-        <v>705</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="26"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="26"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
-        <v>440</v>
-      </c>
+      <c r="A58" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="26"/>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A62" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A63" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="46" t="s">
-        <v>443</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
+      <c r="B64" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="47" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>146</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A66" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A67" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A68" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6718,7 +6693,7 @@
         <v>133</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -6744,7 +6719,7 @@
         <v>146</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6770,7 +6745,7 @@
         <v>133</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -6793,10 +6768,10 @@
         <v>146</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6819,10 +6794,10 @@
         <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -6848,7 +6823,7 @@
         <v>133</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
@@ -6874,7 +6849,7 @@
         <v>133</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -6897,10 +6872,10 @@
         <v>133</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -6924,7 +6899,7 @@
         <v>146</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -6948,7 +6923,7 @@
         <v>133</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -6972,7 +6947,7 @@
         <v>146</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -6996,7 +6971,7 @@
         <v>133</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -7088,7 +7063,7 @@
         <v>133</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -7132,7 +7107,7 @@
         <v>133</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -7169,7 +7144,7 @@
         <v>236</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>218</v>
@@ -7232,16 +7207,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>229</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F25" s="67" t="s">
         <v>146</v>
@@ -7253,16 +7228,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F26" s="54" t="s">
         <v>133</v>
@@ -7274,16 +7249,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F27" s="54" t="s">
         <v>133</v>
@@ -7295,16 +7270,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F28" s="54" t="s">
         <v>133</v>
@@ -7316,34 +7291,34 @@
         <v>2</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="55" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
       <c r="B30" s="58" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E30" s="61" t="s">
         <v>183</v>
@@ -7352,28 +7327,28 @@
         <v>155</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="55" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
       <c r="B31" s="58" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E31" s="61" t="s">
         <v>183</v>
       </c>
       <c r="F31" s="61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -7381,22 +7356,22 @@
         <v>2</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F32" s="61" t="s">
         <v>133</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -7404,22 +7379,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F33" s="57" t="s">
         <v>155</v>
       </c>
       <c r="G33" s="57" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="H33" s="72"/>
     </row>
@@ -7428,25 +7403,25 @@
         <v>2</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F34" s="61" t="s">
         <v>146</v>
       </c>
       <c r="G34" s="57" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H34" s="57" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -7454,13 +7429,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E35" s="61" t="s">
         <v>183</v>
@@ -7469,10 +7444,10 @@
         <v>146</v>
       </c>
       <c r="G35" s="57" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -7480,25 +7455,25 @@
         <v>2</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F36" s="61" t="s">
         <v>146</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -7506,23 +7481,23 @@
         <v>2</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E37" s="61" t="s">
         <v>142</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="57" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
@@ -7530,23 +7505,23 @@
         <v>2</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E38" s="61" t="s">
         <v>142</v>
       </c>
       <c r="F38" s="61"/>
       <c r="G38" s="61" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -7567,22 +7542,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
